--- a/output/Santa_read.xlsx
+++ b/output/Santa_read.xlsx
@@ -3658,7 +3658,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>(52.15195614007672, 25.552317282328897)</t>
+          <t>(52.15151054029387, 25.550130047838334)</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>(55.16688959951032, 28.820661750000003)</t>
+          <t>(52.08737880497973, 27.35891342352503)</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -17300,6 +17300,16 @@
       </c>
       <c r="O234" t="n">
         <v>27</v>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>(54.27393916790023, 28.76577168891425)</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>(True)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/Santa_read.xlsx
+++ b/output/Santa_read.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>(52.09968024971378, 23.691466549916417)</t>
+          <t>(52.09843878428755, 23.691932466922516)</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>(52.08703145033841, 23.701415184592868)</t>
+          <t>(52.0871322071289, 23.702498791328182)</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>(52.11273896428011, 23.73404736425929)</t>
+          <t>(52.11322637383417, 23.7346038152374)</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>(52.89380298192353, 30.01528019999395)</t>
+          <t>(52.89373254552583, 30.014872505644558)</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>(53.04335859987867, 27.5871268665806)</t>
+          <t>(53.04407736369131, 27.58590905115899)</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>(54.28579807100659, 28.76130852095085)</t>
+          <t>(53.89790583063094, 27.556225664447265)</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>(52.14637408012943, 23.671843135537394)</t>
+          <t>(52.14616045551616, 23.673302562747427)</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>(52.091651649167474, 23.657577699977217)</t>
+          <t>(52.09136738177737, 23.657643134571266)</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>(52.1091230458138, 23.774673894636123)</t>
+          <t>(52.10904465248508, 23.774144521764068)</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>(53.89461785420358, 25.31318542128634)</t>
+          <t>(53.89562740422917, 25.31828712502431)</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>(52.12776876145494, 26.098090843139172)</t>
+          <t>(52.127416993671446, 26.098290350704257)</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>(52.10683129180987, 23.761085481757068)</t>
+          <t>(52.106228135220114, 23.761028547586807)</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>(52.12112849989329, 26.105695176667183)</t>
+          <t>(52.112997592793924, 23.778774867112997)</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>(52.225541379390606, 27.485097843013683)</t>
+          <t>(52.22715177316377, 27.48462566884957)</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>(52.08737880497973, 27.35891342352503)</t>
+          <t>(55.16688959951032, 28.820661750000003)</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>(52.05782895266697, 23.814718313963112)</t>
+          <t>(52.09409583459159, 23.69255835777658)</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>(55.38604261590397, 29.023899476018894)</t>
+          <t>(53.63258535834539, 31.554075281037235)</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>(53.0141899482401, 27.553984714192932)</t>
+          <t>(53.013123298922416, 27.553510749417768)</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>(53.19952929923168, 24.02382594999878)</t>
+          <t>(53.19982784923323, 24.02356285000546)</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>(53.96734314922263, 25.81424850002814)</t>
+          <t>(53.936492030808324, 25.756810515709603)</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>(55.02217385918118, 30.80327494241571)</t>
+          <t>(55.022962953019615, 30.80389667852725)</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>(53.13496745384594, 30.800383343776723)</t>
+          <t>(53.13576534943189, 30.80089394992311)</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>(53.89435117071734, 30.268257915670546)</t>
+          <t>(53.893751346118066, 30.267280410121796)</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>(53.118734379233054, 26.028346759263442)</t>
+          <t>(53.11788639980051, 26.02900709993369)</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>(54.29574489992096, 26.845503410869213)</t>
+          <t>(54.296181686429165, 26.845833134464808)</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>(53.148547380404004, 29.24104733209985)</t>
+          <t>(53.14912805821077, 29.24229381538008)</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -8007,12 +8007,12 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>(53.63703559917435, 24.71984694999324)</t>
+          <t>(53.611680057200715, 24.732147415086832)</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>(55.50538110014555, 28.698833249874266)</t>
+          <t>(55.50585985209533, 28.700080769542318)</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -8886,7 +8886,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>(52.10224234537671, 23.732302945609963)</t>
+          <t>(52.106586949141885, 23.734762500006813)</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>(54.50052894569944, 30.4374438876857)</t>
+          <t>(54.500378199295945, 30.437445300001446)</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>(52.07971367377248, 23.766217928253923)</t>
+          <t>(52.079339825181506, 23.766902640452034)</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>(53.14761438002457, 29.221144114149602)</t>
+          <t>(53.147100837635875, 29.223085364070446)</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>(53.13384014094978, 29.19284754970343)</t>
+          <t>(53.135058349130944, 29.188138299999142)</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>(52.357461430419974, 30.988209914277824)</t>
+          <t>(52.35820667875242, 30.98889224991893)</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>(55.70415439503925, 29.12457020132574)</t>
+          <t>(54.912821299582, 28.184546199995268)</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>(53.841977024279814, 27.39926756406924)</t>
+          <t>(53.842280722976085, 27.399521453909237)</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>(52.09285839211456, 23.706240999826754)</t>
+          <t>(52.093241349683844, 23.707349252488964)</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>(53.73621804484792, 31.70606172673835)</t>
+          <t>(53.73244434339036, 31.702022597219063)</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>(53.485081166375394, 26.751089840810394)</t>
+          <t>(53.92847030618453, 27.554947160834885)</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
@@ -12652,12 +12652,12 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>(53.86035814918629, 27.20349119999492)</t>
+          <t>(53.68741868747188, 27.1562305237688)</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12770,7 +12770,7 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>(54.226911597889845, 28.49418193231928)</t>
+          <t>(53.89362584022411, 27.528699555384648)</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>(53.81884864922355, 27.472875150022528)</t>
+          <t>(53.84982733348029, 27.464462101358315)</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
@@ -12961,7 +12961,7 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>(53.90365234925365, 27.546292100012497)</t>
+          <t>(53.90359076664956, 27.545705842859338)</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>(53.48498299914903, 26.75148449998671)</t>
+          <t>(53.92660949045474, 27.556457752521645)</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>(53.84683570891808, 27.534372029575916)</t>
+          <t>(53.8468313094113, 27.53362064401671)</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
@@ -13272,7 +13272,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>(54.33194370289389, 26.841192374576007)</t>
+          <t>(53.95255144448075, 27.602491126669488)</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
@@ -13317,7 +13317,7 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>(54.47901299716143, 26.899645369166784)</t>
+          <t>(53.87478439956768, 27.624879599306116)</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
@@ -13435,7 +13435,7 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>(53.8615991737054, 27.442314426216985)</t>
+          <t>(53.86151628616421, 27.44150129803561)</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>(53.95076697469839, 27.693791734830995)</t>
+          <t>(53.95025309308646, 27.69408949122275)</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
@@ -13626,7 +13626,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>(53.67148157049113, 27.124501095989334)</t>
+          <t>(53.9052108513119, 27.55221249808761)</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
@@ -13774,7 +13774,7 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>(53.86953667006246, 27.66947217346677)</t>
+          <t>(53.86963766855745, 27.668619411091072)</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
@@ -13849,7 +13849,7 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>(53.40895547577586, 26.992743090034086)</t>
+          <t>(53.87568805527387, 27.598220493998838)</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>(54.32496564927884, 26.835248099999802)</t>
+          <t>(53.88354746943547, 27.448133984656355)</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>(52.43849214912599, 31.312478549997152)</t>
+          <t>(52.45977377196758, 30.953614777912104)</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
@@ -14477,7 +14477,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>(53.85183193927772, 27.538571836147764)</t>
+          <t>(53.85192044405762, 27.538397471828393)</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>(54.211338049249214, 28.51216079998979)</t>
+          <t>(53.93867720873344, 27.603512585249455)</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>(52.74709947321016, 29.501675583424028)</t>
+          <t>(52.62763705546148, 29.735246177132336)</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
@@ -16364,7 +16364,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>(53.85840389848685, 27.476557653884708)</t>
+          <t>(53.858387928771066, 27.476664611840697)</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>(54.41891802337379, 27.830581398318618)</t>
+          <t>(53.87829977770792, 27.548295661615487)</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>(54.31190724834041, 26.88251671323456)</t>
+          <t>(53.92129880000198, 27.56547495384456)</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>(54.31190724834041, 26.88251671323456)</t>
+          <t>(53.92129880000198, 27.56547495384456)</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
@@ -17163,7 +17163,7 @@
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>(53.67148157049113, 27.124501095989334)</t>
+          <t>(53.9052108513119, 27.55221249808761)</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
@@ -17303,7 +17303,7 @@
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>(54.27393916790023, 28.76577168891425)</t>
+          <t>(53.88909673644769, 27.58114485637925)</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
